--- a/ejerciciosgraficos.xlsx
+++ b/ejerciciosgraficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programacion\BEDU\DataScience\BeduDataScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{235A318B-4722-4D82-9643-16786259C2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3660B046-2755-4522-BAA9-5918208B4007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9399ED6C-8578-4DCB-ABC2-1FDCA1FE3B41}"/>
   </bookViews>
